--- a/Partition Table/chs-calculator.xlsx
+++ b/Partition Table/chs-calculator.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Logical S</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>L-CHS to P-CHS</t>
+  </si>
+  <si>
+    <t>C*</t>
+  </si>
+  <si>
+    <t>H*</t>
+  </si>
+  <si>
+    <t>S*</t>
+  </si>
+  <si>
+    <t>* indicates a required field</t>
+  </si>
+  <si>
+    <t>CHS to LBA</t>
   </si>
 </sst>
 </file>
@@ -237,9 +252,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4638095" cy="1704762"/>
     <xdr:pic>
@@ -257,7 +272,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="3429000"/>
+          <a:off x="781050" y="3905250"/>
           <a:ext cx="4638095" cy="1704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -533,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="13" width="9.7109375" customWidth="1"/>
+    <col min="1" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -550,10 +565,10 @@
     <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
@@ -566,8 +581,12 @@
         <v>24</v>
       </c>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
@@ -584,10 +603,16 @@
         <v>21</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6335279</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -602,8 +627,14 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -620,10 +651,16 @@
         <v>16</v>
       </c>
       <c r="I5" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="E6" s="4"/>
@@ -634,8 +671,10 @@
       <c r="I6" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -650,8 +689,14 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -668,11 +713,17 @@
         <v>12</v>
       </c>
       <c r="I8" s="3">
-        <f>ROUND(I3/(I5*I6),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <f>ROUNDDOWN(I3/(I5*I6),0)</f>
+        <v>785</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="E9" s="4"/>
@@ -681,11 +732,13 @@
         <v>11</v>
       </c>
       <c r="I9" s="3">
-        <f>ROUND(MOD(I3,I5*I6)/I6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>ROUNDDOWN(MOD(I3,I5*I6)/I6,0)</f>
+        <v>79</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -705,16 +758,23 @@
       </c>
       <c r="I10" s="1">
         <f>MOD(MOD(I3,I5*I6),I6)+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(L3*L7*L8)+(L4*L8)+(L5-1)</f>
+        <v>6335279</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -728,7 +788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -742,41 +802,41 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3">
-        <f>ROUND(C10/(C12*C13),0)</f>
+        <f>ROUNDDOWN(C10/(C12*C13),0)</f>
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3">
-        <f>ROUND(F10/(F12*F13),0)</f>
+        <f>ROUNDDOWN(F10/(F12*F13),0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <f>ROUND(MOD(C10,C12*C13)/C13,0)</f>
+        <f>ROUNDDOWN(MOD(C10,C12*C13)/C13,0)</f>
         <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <f>ROUND(MOD(F10,F12*F13)/F13,0)</f>
+        <f>ROUNDDOWN(MOD(F10,F12*F13)/F13,0)</f>
         <v>7</v>
       </c>
     </row>
@@ -796,13 +856,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>